--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-0.127885330996588</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.957451706567517</v>
+        <v>-1.923077187146674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4037537267888953</v>
+        <v>0.3946299233854211</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1682591600579174</v>
+        <v>-0.1814883395365828</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1327014917202297</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.034865888463765</v>
+        <v>-1.984018631405309</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3386818997073217</v>
+        <v>0.3311566983976041</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1693679958482454</v>
+        <v>-0.1735355838324648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1431669223597092</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.137105671665688</v>
+        <v>-2.065285072295897</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2973774615572665</v>
+        <v>0.2688441524576388</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1874009105769784</v>
+        <v>-0.1904529536434257</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1610994634623342</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.151205207950073</v>
+        <v>-2.078705156946385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2853028619196852</v>
+        <v>0.2474646029755891</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.220129864011956</v>
+        <v>-0.2126375984187828</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.183294760231276</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.079370580404717</v>
+        <v>-2.011348567009713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2834267459180081</v>
+        <v>0.2552051062841987</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2323490148499266</v>
+        <v>-0.2125235432522309</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2018267368298293</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.901625667024768</v>
+        <v>-1.861585594437611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.363081166459951</v>
+        <v>0.3205477381462484</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2037577632860079</v>
+        <v>-0.1823574765009487</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2080137761201897</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.530249236397612</v>
+        <v>-1.497062842455074</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4026570894121023</v>
+        <v>0.3593454023148692</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1841189274153971</v>
+        <v>-0.1583424597746707</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.196665864917551</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.142562307032861</v>
+        <v>-1.104408109178209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3861587351060673</v>
+        <v>0.3191912745611608</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1511838207916788</v>
+        <v>-0.1179321653367281</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1629104763437422</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.686252592406508</v>
+        <v>-0.6405439170496551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3842826191043903</v>
+        <v>0.3060011300058073</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1042979985287021</v>
+        <v>-0.07160137088959216</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1024017815556704</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07247904674343263</v>
+        <v>0.006807591630431173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3695963391289738</v>
+        <v>0.2679597674763541</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02864221794351945</v>
+        <v>0.01369725559497723</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01253447690689809</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5845500733146151</v>
+        <v>0.6979593338698257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3074710388367701</v>
+        <v>0.1861663551210558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06582656591595699</v>
+        <v>0.1090339565774662</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1100747859740969</v>
       </c>
       <c r="E13" t="n">
-        <v>1.256115432861599</v>
+        <v>1.405438042705089</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2046902559945711</v>
+        <v>0.06975018562947725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1910133947391726</v>
+        <v>0.2434068007131843</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2654990857804073</v>
       </c>
       <c r="E14" t="n">
-        <v>1.924300002097369</v>
+        <v>2.09424037049765</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02705268865372946</v>
+        <v>-0.1343420811446346</v>
       </c>
       <c r="G14" t="n">
-        <v>0.338734352885522</v>
+        <v>0.3874163915415217</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4474565266576414</v>
       </c>
       <c r="E15" t="n">
-        <v>2.593122548361017</v>
+        <v>2.77628904663658</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2048983149515267</v>
+        <v>-0.3808049274117574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4878172639030499</v>
+        <v>0.5510440809374605</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6484378780749999</v>
       </c>
       <c r="E16" t="n">
-        <v>3.223273074115454</v>
+        <v>3.410025905970296</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4313563729419899</v>
+        <v>-0.6486223164131831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6493297483920263</v>
+        <v>0.7178653149968521</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8582386719914186</v>
       </c>
       <c r="E17" t="n">
-        <v>3.853101561752569</v>
+        <v>4.014417041862956</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6951647533351507</v>
+        <v>-0.9241405638792298</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8097577939177447</v>
+        <v>0.8828750846463019</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.066545769499953</v>
       </c>
       <c r="E18" t="n">
-        <v>4.412208527079393</v>
+        <v>4.560025242771991</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.036631893815935</v>
+        <v>-1.279960357725249</v>
       </c>
       <c r="G18" t="n">
-        <v>1.010876087472033</v>
+        <v>1.093506920916506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.269638516852938</v>
       </c>
       <c r="E19" t="n">
-        <v>4.87097256250898</v>
+        <v>5.003546140648291</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.382554504840363</v>
+        <v>-1.634634720540336</v>
       </c>
       <c r="G19" t="n">
-        <v>1.204819274185057</v>
+        <v>1.301474623670676</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.46831568085065</v>
       </c>
       <c r="E20" t="n">
-        <v>5.263627295785844</v>
+        <v>5.371224622212322</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.66022211277127</v>
+        <v>-1.92180245293227</v>
       </c>
       <c r="G20" t="n">
-        <v>1.401552847994204</v>
+        <v>1.49152407678334</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.660330176560281</v>
       </c>
       <c r="E21" t="n">
-        <v>5.648165204696546</v>
+        <v>5.724688292484064</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.007513995714998</v>
+        <v>-2.273283271083904</v>
       </c>
       <c r="G21" t="n">
-        <v>1.580115055080995</v>
+        <v>1.676550833122985</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.841686920811848</v>
       </c>
       <c r="E22" t="n">
-        <v>5.914287014216612</v>
+        <v>5.972871115059617</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.366972576318496</v>
+        <v>-2.618507522933456</v>
       </c>
       <c r="G22" t="n">
-        <v>1.812811991673915</v>
+        <v>1.919801227185675</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.008241038603323</v>
       </c>
       <c r="E23" t="n">
-        <v>6.045406541462556</v>
+        <v>6.069288595481303</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.643203821055661</v>
+        <v>-2.880050657933174</v>
       </c>
       <c r="G23" t="n">
-        <v>1.933336586844068</v>
+        <v>2.038385664683093</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.152925374714649</v>
       </c>
       <c r="E24" t="n">
-        <v>6.13191403072844</v>
+        <v>6.149197962866126</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.884514667366293</v>
+        <v>-3.119864758903066</v>
       </c>
       <c r="G24" t="n">
-        <v>2.079929801659111</v>
+        <v>2.186715323664837</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.268625784284176</v>
       </c>
       <c r="E25" t="n">
-        <v>6.197193840760785</v>
+        <v>6.197841576519491</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.091031978751155</v>
+        <v>-3.297019269067924</v>
       </c>
       <c r="G25" t="n">
-        <v>2.163742051454445</v>
+        <v>2.257442945181896</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.352400699294395</v>
       </c>
       <c r="E26" t="n">
-        <v>6.224312133890357</v>
+        <v>6.206955011271461</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.25571635571956</v>
+        <v>-3.455325095598897</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265026698876581</v>
+        <v>2.336034883904943</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.402718606478142</v>
       </c>
       <c r="E27" t="n">
-        <v>6.170991648487688</v>
+        <v>6.13233609583675</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.398902858594626</v>
+        <v>-3.59770558829964</v>
       </c>
       <c r="G27" t="n">
-        <v>2.263150582874904</v>
+        <v>2.349936195969385</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.418295901736399</v>
       </c>
       <c r="E28" t="n">
-        <v>6.03801796238443</v>
+        <v>5.978073738432277</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.441688184147826</v>
+        <v>-3.647011575807953</v>
       </c>
       <c r="G28" t="n">
-        <v>2.279013399835767</v>
+        <v>2.348125951400797</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.400242628708191</v>
       </c>
       <c r="E29" t="n">
-        <v>5.88327498748668</v>
+        <v>5.812754738999717</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.442825381249623</v>
+        <v>-3.619839914619166</v>
       </c>
       <c r="G29" t="n">
-        <v>2.247624442127605</v>
+        <v>2.316238078579055</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.351084785309233</v>
       </c>
       <c r="E30" t="n">
-        <v>5.741925870650318</v>
+        <v>5.639825149362693</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.475593369607912</v>
+        <v>-3.63914603876061</v>
       </c>
       <c r="G30" t="n">
-        <v>2.210411961797853</v>
+        <v>2.250742356627141</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.272050396781913</v>
       </c>
       <c r="E31" t="n">
-        <v>5.569334177068213</v>
+        <v>5.448906559285662</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.39392072154661</v>
+        <v>-3.531415749626601</v>
       </c>
       <c r="G31" t="n">
-        <v>2.071928862221529</v>
+        <v>2.122224141067528</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.16583470293625</v>
       </c>
       <c r="E32" t="n">
-        <v>5.289695305510056</v>
+        <v>5.177191777159816</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.311830277821735</v>
+        <v>-3.448535458625338</v>
       </c>
       <c r="G32" t="n">
-        <v>1.967176815752081</v>
+        <v>2.008136648719773</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.036309605638551</v>
       </c>
       <c r="E33" t="n">
-        <v>4.93589861854881</v>
+        <v>4.80350313724711</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.172474076796647</v>
+        <v>-3.294559763938937</v>
       </c>
       <c r="G33" t="n">
-        <v>1.820762917616002</v>
+        <v>1.855607685878619</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.886975087065473</v>
       </c>
       <c r="E34" t="n">
-        <v>4.572223656306953</v>
+        <v>4.443581626849959</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.019153436917073</v>
+        <v>-3.144534830436172</v>
       </c>
       <c r="G34" t="n">
-        <v>1.641978089482198</v>
+        <v>1.683950390773292</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.72205242411773</v>
       </c>
       <c r="E35" t="n">
-        <v>4.206864093155917</v>
+        <v>4.072974306196183</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.8800421190437</v>
+        <v>-2.990310898034334</v>
       </c>
       <c r="G35" t="n">
-        <v>1.515417719294945</v>
+        <v>1.541522934180439</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.549206709982814</v>
       </c>
       <c r="E36" t="n">
-        <v>3.811665990657013</v>
+        <v>3.697558370926926</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.742913653290434</v>
+        <v>-2.837134809355151</v>
       </c>
       <c r="G36" t="n">
-        <v>1.432045832228223</v>
+        <v>1.453046620970012</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.374395675707418</v>
       </c>
       <c r="E37" t="n">
-        <v>3.477357489159221</v>
+        <v>3.380738734914208</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.661755778280307</v>
+        <v>-2.753415267502682</v>
       </c>
       <c r="G37" t="n">
-        <v>1.320323002344221</v>
+        <v>1.332142655138921</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.20236816921948</v>
       </c>
       <c r="E38" t="n">
-        <v>3.129918615332397</v>
+        <v>3.029016998095259</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.577269566137166</v>
+        <v>-2.654075657118696</v>
       </c>
       <c r="G38" t="n">
-        <v>1.199962475836112</v>
+        <v>1.208280574025603</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.040141110252458</v>
       </c>
       <c r="E39" t="n">
-        <v>2.789118118151298</v>
+        <v>2.677877125601927</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.4488550370926</v>
+        <v>-2.530942431214091</v>
       </c>
       <c r="G39" t="n">
-        <v>1.065570114238738</v>
+        <v>1.074549366441823</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8911941395839863</v>
       </c>
       <c r="E40" t="n">
-        <v>2.481532681184546</v>
+        <v>2.365648972443768</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.372062974286635</v>
+        <v>-2.449645494289665</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9634523151721646</v>
+        <v>0.9697418171907906</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7566168932382431</v>
       </c>
       <c r="E41" t="n">
-        <v>2.123468379248094</v>
+        <v>2.016730431055153</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.293638153829017</v>
+        <v>-2.370112447962395</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8221282050835489</v>
+        <v>0.824195226257048</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6380261350512576</v>
       </c>
       <c r="E42" t="n">
-        <v>1.785248456450316</v>
+        <v>1.693176050929783</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.206649437149178</v>
+        <v>-2.278865265117502</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7381024830513526</v>
+        <v>0.7265206993205837</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5349820831316568</v>
       </c>
       <c r="E43" t="n">
-        <v>1.506626932580976</v>
+        <v>1.406202883233731</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.129115710800288</v>
+        <v>-2.214144142425059</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6235898759919047</v>
+        <v>0.6171661914243942</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4450342697319895</v>
       </c>
       <c r="E44" t="n">
-        <v>1.240728354028599</v>
+        <v>1.147264109523727</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.045907282474935</v>
+        <v>-2.120434099887457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5472497644074108</v>
+        <v>0.5361492080905962</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3661148589841774</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9971248158940714</v>
+        <v>0.8996930373869528</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.940542265725354</v>
+        <v>-2.00880397794632</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4591186663000235</v>
+        <v>0.4383722144804383</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2960820730380221</v>
       </c>
       <c r="E46" t="n">
-        <v>0.809108228397008</v>
+        <v>0.7028295504736589</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.851844551309268</v>
+        <v>-1.924980749578804</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3675146798592326</v>
+        <v>0.3434636778130264</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2320552938505951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6042090365675584</v>
+        <v>0.5064143552577749</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.764497201271502</v>
+        <v>-1.840460381877765</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3171632883109735</v>
+        <v>0.2941790375283996</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1712479716883873</v>
       </c>
       <c r="E48" t="n">
-        <v>0.473151111309966</v>
+        <v>0.3682734211811072</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.665994402056014</v>
+        <v>-1.736130400516626</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2251341871584892</v>
+        <v>0.2108785111808569</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1131607681518353</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3488553765954793</v>
+        <v>0.2479013061801408</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.5253076590746</v>
+        <v>-1.599208087952101</v>
       </c>
       <c r="G49" t="n">
-        <v>0.156662662224722</v>
+        <v>0.1454980642368488</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05629649868797172</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23101016295828</v>
+        <v>0.1173532746083097</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.426070515364307</v>
+        <v>-1.498394909213091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1340583920237622</v>
+        <v>0.1094572415271293</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0001434144699054126</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06304837723336959</v>
+        <v>-0.04000747983404276</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.316387870144027</v>
+        <v>-1.390530437530197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08439621084022837</v>
+        <v>0.0618376846900247</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.05483599939205609</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.006718619217810509</v>
+        <v>-0.1080441313252886</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.23083551665793</v>
+        <v>-1.308657735486922</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04722703487852497</v>
+        <v>0.02606522707807435</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1079871051891333</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1324763337944623</v>
+        <v>-0.2331254438714269</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.131919191223607</v>
+        <v>-1.21162240541969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00430508709373389</v>
+        <v>-0.01800215173764958</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1596221525758479</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2535455881289518</v>
+        <v>-0.3476496394237329</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.057862622652858</v>
+        <v>-1.151068870711466</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0792839317339107</v>
+        <v>-0.09463563516765933</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2093604571194865</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3282657503960029</v>
+        <v>-0.4204009777462413</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9839268183761047</v>
+        <v>-1.090683064189347</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09882030093082775</v>
+        <v>-0.1209445635591868</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2571768072140765</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3763543362335268</v>
+        <v>-0.4789246964422477</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9131961472556627</v>
+        <v>-1.02857911112083</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1418282475310403</v>
+        <v>-0.163273058525502</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3043179076532149</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4710664784430257</v>
+        <v>-0.5579258919393933</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9021242572106551</v>
+        <v>-1.019575462090675</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1894624424643869</v>
+        <v>-0.2087908287105328</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3518973521599389</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5464179086105111</v>
+        <v>-0.6252544255249348</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8337039656137348</v>
+        <v>-0.9553148295091766</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2305900036181852</v>
+        <v>-0.2466815408328292</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4002231947577595</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6565744621966243</v>
+        <v>-0.7303346093184739</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8183412836078047</v>
+        <v>-0.9319213219525048</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2602059219190406</v>
+        <v>-0.28977609616914</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4490626018238129</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7982669643739959</v>
+        <v>-0.8482347158165805</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8164639477647742</v>
+        <v>-0.9406694142191022</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.288984419130721</v>
+        <v>-0.3167187321438087</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4980906130095805</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8963153726853067</v>
+        <v>-0.9538186940891136</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8248802431832206</v>
+        <v>-0.9488978540691102</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3378164982732008</v>
+        <v>-0.3740171202002283</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5464454921983249</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9970840272149138</v>
+        <v>-1.048048998963982</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7797241559595014</v>
+        <v>-0.9211074283537617</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3365509128689486</v>
+        <v>-0.3634648825718101</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5933572836214827</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.110113917109187</v>
+        <v>-1.134529651720089</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7950715899485128</v>
+        <v>-0.9407974975612193</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3837514542011272</v>
+        <v>-0.4161077461026117</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6384499567797564</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.144190185319101</v>
+        <v>-1.175086937041127</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8013244967265339</v>
+        <v>-0.9524146566912396</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4033762618961728</v>
+        <v>-0.4385985710576963</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6807820857770099</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.236565111495302</v>
+        <v>-1.237058537322791</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8475204987041085</v>
+        <v>-1.00457202336335</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4496210575278873</v>
+        <v>-0.4831502268907583</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.719055375992517</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.293480469366723</v>
+        <v>-1.306083260310368</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8660383003708564</v>
+        <v>-1.032676558227223</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4984250803192366</v>
+        <v>-0.5276305220046407</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7531635623397543</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.347564575456681</v>
+        <v>-1.354879964053597</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9277049403141455</v>
+        <v>-1.085763444010698</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5342810970639015</v>
+        <v>-0.5677834299169955</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7824756500239674</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.416466094467555</v>
+        <v>-1.412724231115706</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9857901260435701</v>
+        <v>-1.147508153800611</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5746175910999575</v>
+        <v>-0.6070135278454306</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8062008980441852</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.470654496993236</v>
+        <v>-1.465139594234081</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.056767205117418</v>
+        <v>-1.218226626507518</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.551618092300465</v>
+        <v>-0.5849081727580507</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8243657894240921</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.514591962704813</v>
+        <v>-1.500502795071933</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.094950069243877</v>
+        <v>-1.261836564815681</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5875540086537838</v>
+        <v>-0.6273879280521995</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8370544890839066</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.516100906459088</v>
+        <v>-1.500564397060284</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.207099843601603</v>
+        <v>-1.360339364031169</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6097301145396664</v>
+        <v>-0.644654782410937</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8434388124293533</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.601790492097453</v>
+        <v>-1.576389735593603</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.275590885997026</v>
+        <v>-1.421740688480073</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6021890552923534</v>
+        <v>-0.6375815323226898</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8431770762450288</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.529945495900592</v>
+        <v>-1.492307290938469</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.376988978665037</v>
+        <v>-1.533021935794109</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6443553113586536</v>
+        <v>-0.6726708787766823</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8363901762796437</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.482060013648425</v>
+        <v>-1.45354866169316</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.483316450242526</v>
+        <v>-1.638757174394476</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6439131188680114</v>
+        <v>-0.6833420509370663</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8221051066111414</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.417972598539123</v>
+        <v>-1.37830884700952</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.524082328435013</v>
+        <v>-1.693244438051764</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.65084730704196</v>
+        <v>-0.6797703554540296</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7995202620886156</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.332150660113904</v>
+        <v>-1.29925397849282</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.58234134155731</v>
+        <v>-1.751029542808228</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6040133280365069</v>
+        <v>-0.6454684165937189</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7687697790695208</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.232065116742254</v>
+        <v>-1.200713364195374</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.629902346009447</v>
+        <v>-1.788568940620717</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5773128305705072</v>
+        <v>-0.6084309834981931</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.729404900108125</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.115347646436362</v>
+        <v>-1.073904756292685</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.681463210259698</v>
+        <v>-1.835431585897978</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5563083823046575</v>
+        <v>-0.6020768298878318</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6809679805692053</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8571121112666485</v>
+        <v>-0.8259707813532462</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.708676651014843</v>
+        <v>-1.879332456368949</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4747333215516351</v>
+        <v>-0.5241710519261257</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6242778516302279</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.677927175168897</v>
+        <v>-0.6544293711765014</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.762267941197988</v>
+        <v>-1.920188602821595</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4499565139000987</v>
+        <v>-0.4902673912677313</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5601925862706579</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3815630588129552</v>
+        <v>-0.36608693156115</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.739347122165796</v>
+        <v>-1.904060470366346</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4152788639029111</v>
+        <v>-0.460455078508963</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.489442521826695</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1214568969276552</v>
+        <v>-0.1031348797981435</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.769806560762594</v>
+        <v>-1.918100234424409</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3046166860757737</v>
+        <v>-0.3589844052804189</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.413456588230367</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1705109111902867</v>
+        <v>0.1986233750229582</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.751755958334235</v>
+        <v>-1.892859887058544</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2517615701494638</v>
+        <v>-0.3075723616752948</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.333648027770118</v>
       </c>
       <c r="E84" t="n">
-        <v>0.509667672147549</v>
+        <v>0.5416482529121567</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.728866855177234</v>
+        <v>-1.831982484470967</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1488533138858244</v>
+        <v>-0.1993803625889871</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2515907831854137</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7870742340288077</v>
+        <v>0.8302328310361771</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.685365482749532</v>
+        <v>-1.770107861576907</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0591211740019734</v>
+        <v>-0.1142275071461604</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1692572345794138</v>
       </c>
       <c r="E86" t="n">
-        <v>1.053647994770344</v>
+        <v>1.112530346824278</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.563518579552189</v>
+        <v>-1.628059165724315</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0106007643253119</v>
+        <v>-0.06240620676693844</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08961531588009912</v>
       </c>
       <c r="E87" t="n">
-        <v>1.298467104813631</v>
+        <v>1.370515814516525</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.42045253601078</v>
+        <v>-1.470048235840549</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0719184536353166</v>
+        <v>0.01419983023261764</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01570757494830763</v>
       </c>
       <c r="E88" t="n">
-        <v>1.556487337984453</v>
+        <v>1.632166905476028</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.330894223519803</v>
+        <v>-1.351598590812692</v>
       </c>
       <c r="G88" t="n">
-        <v>0.101549010032414</v>
+        <v>0.04554243396934684</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04861061310634092</v>
       </c>
       <c r="E89" t="n">
-        <v>1.763985401817526</v>
+        <v>1.838381086284547</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.179945565152102</v>
+        <v>-1.165073259370278</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1421209334496948</v>
+        <v>0.0932906840692453</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09857275681101135</v>
       </c>
       <c r="E90" t="n">
-        <v>1.926671373688565</v>
+        <v>2.017237885058208</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.02610344309391</v>
+        <v>-0.9824843559755956</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1882583830423017</v>
+        <v>0.1404393821439004</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1310743751465984</v>
       </c>
       <c r="E91" t="n">
-        <v>2.046789151767328</v>
+        <v>2.132216471514691</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7948782450939836</v>
+        <v>-0.740843542578843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1840377319592051</v>
+        <v>0.1319053720348416</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1429776920078981</v>
       </c>
       <c r="E92" t="n">
-        <v>2.186483553807673</v>
+        <v>2.261594065307843</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6247158655673662</v>
+        <v>-0.5549775353879933</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2017376299984338</v>
+        <v>0.1341858654452026</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1333986951924486</v>
       </c>
       <c r="E93" t="n">
-        <v>2.169398455810606</v>
+        <v>2.257522234869873</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4044466726838656</v>
+        <v>-0.334433878199956</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1684743860506249</v>
+        <v>0.1063002921042814</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1041757890838999</v>
       </c>
       <c r="E94" t="n">
-        <v>2.181932325717779</v>
+        <v>2.270740435776357</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2579791015282334</v>
+        <v>-0.1998725685751227</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1290643615225491</v>
+        <v>0.0669561390092944</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06116312867539252</v>
       </c>
       <c r="E95" t="n">
-        <v>2.140629107409077</v>
+        <v>2.234791711088826</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1261166908980103</v>
+        <v>-0.06615294948420176</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09878119000133131</v>
+        <v>0.04007510502297724</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01291225522185865</v>
       </c>
       <c r="E96" t="n">
-        <v>2.038692454783497</v>
+        <v>2.119897903606411</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01582534484233576</v>
+        <v>0.03843319856117147</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04838771392637653</v>
+        <v>-0.003055435633261672</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02992367253228552</v>
       </c>
       <c r="E97" t="n">
-        <v>1.875402661442477</v>
+        <v>1.945872286513271</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03260418665349028</v>
+        <v>0.07658678649514623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0614631933945014</v>
+        <v>0.0048991498328865</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05891831479149426</v>
       </c>
       <c r="E98" t="n">
-        <v>1.676463004545533</v>
+        <v>1.742718077739998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07065103846903414</v>
+        <v>0.1091455720613111</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03577516425190343</v>
+        <v>-0.01566554562502777</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07119454453528311</v>
       </c>
       <c r="E99" t="n">
-        <v>1.491924794667964</v>
+        <v>1.54143266592028</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09239227091239541</v>
+        <v>0.1302793235106313</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02728018906615649</v>
+        <v>-0.01793871998726778</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0728920695001668</v>
       </c>
       <c r="E100" t="n">
-        <v>1.35608448138399</v>
+        <v>1.408485206406122</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1123464357728849</v>
+        <v>0.1469911500535281</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.001727028399304402</v>
+        <v>-0.05259258307806219</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07203070835858573</v>
       </c>
       <c r="E101" t="n">
-        <v>1.19342290634002</v>
+        <v>1.248199882318763</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1474693278640985</v>
+        <v>0.1818103016477212</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.03214621223143704</v>
+        <v>-0.06792781865353861</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08152546175700381</v>
       </c>
       <c r="E102" t="n">
-        <v>1.033343125520725</v>
+        <v>1.078183273833888</v>
       </c>
       <c r="F102" t="n">
-        <v>0.12744746180849</v>
+        <v>0.171594740232868</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.04143591405898672</v>
+        <v>-0.08652978937367763</v>
       </c>
     </row>
   </sheetData>
